--- a/4º Semestre/Estatística/Unidade 1/Trabalho - Série estatística.xlsx
+++ b/4º Semestre/Estatística/Unidade 1/Trabalho - Série estatística.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24da011ca89bcbe6/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositories\Graduações\FURB\4º Semestre\Estatística\Unidade 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{8C928918-1F9C-4C22-BB82-23B318088016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD545231-7DC0-4E02-A7B1-F6BF60199772}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D821184-CF6E-448C-B40B-C3C568DEFC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5868" yWindow="-12" windowWidth="17280" windowHeight="9420" activeTab="3" xr2:uid="{382C43C0-C79F-4779-AFD2-084B589858F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{382C43C0-C79F-4779-AFD2-084B589858F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha3" sheetId="5" r:id="rId4"/>
+    <sheet name="Gráfico em colunas" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico em pizza" sheetId="2" r:id="rId2"/>
+    <sheet name="Gráfico em linhas" sheetId="4" r:id="rId3"/>
+    <sheet name="Gráfico em barras" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Porte</t>
   </si>
@@ -58,9 +57,6 @@
   </si>
   <si>
     <t>Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo máximo (em anos) de idade em média </t>
   </si>
   <si>
     <t>Sabores de pizza mais populares</t>
@@ -114,13 +110,7 @@
     <t>fonte: https://www.poder360.com.br/brasil/expectativa-de-vida-no-brasil-chega-a-768-anos-diz-ibge/</t>
   </si>
   <si>
-    <t>Taxa de mortalidade infantil por região(2013)</t>
-  </si>
-  <si>
     <t>Região</t>
-  </si>
-  <si>
-    <t>Taxa</t>
   </si>
   <si>
     <t>Nordeste</t>
@@ -137,12 +127,24 @@
   <si>
     <t>Sul</t>
   </si>
+  <si>
+    <t>Taxa de mortalidade infantil por região (2013)</t>
+  </si>
+  <si>
+    <t>Fonte: dados fictícios</t>
+  </si>
+  <si>
+    <t>Taxa (qtd de crianças)</t>
+  </si>
+  <si>
+    <t>Tempo médio de vida (em anos) de cachorros por porte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +160,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,21 +192,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,14 +349,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>'Gráfico em colunas'!$L$2:$Q$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo máximo (em anos) de idade em média </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Idade (anos)</c:v>
+                  <c:v>Tempo médio de vida (em anos) de cachorros por porte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -344,7 +427,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:f>'Gráfico em colunas'!$L$4:$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -361,7 +444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>'Gráfico em colunas'!$N$4:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -755,14 +838,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$2:$C$3</c:f>
+              <c:f>'Gráfico em pizza'!$N$2:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Sabores de pizza mais populares</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentual de popularidade</c:v>
+                  <c:v>Sabores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1243,7 +1326,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$4:$B$13</c:f>
+              <c:f>'Gráfico em pizza'!$M$4:$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1281,7 +1364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$4:$C$13</c:f>
+              <c:f>'Gráfico em pizza'!$O$4:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1494,14 +1577,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha2!$C$2:$C$3</c:f>
+              <c:f>'Gráfico em linhas'!$L$2:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Expectativa de vida no Brasil</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Idade</c:v>
+                  <c:v>Ano</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1531,11 +1614,17 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Planilha2!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Gráfico em linhas'!$K$4:$K$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Gráfico em linhas'!$K$4:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1940</c:v>
                 </c:pt>
@@ -1569,15 +1658,22 @@
                 <c:pt idx="10">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$C$4:$C$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Gráfico em linhas'!$M$4:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Gráfico em linhas'!$M$4:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -1931,7 +2027,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Taxa de mortalidade infantil por região(2013)</a:t>
+              <a:t>Taxa de mortalidade infantil por região (2013)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1966,48 +2062,9 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -2016,14 +2073,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha3!$C$2:$C$3</c:f>
+              <c:f>'Gráfico em barras'!$M$2:$Q$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taxa de mortalidade infantil por região(2013)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Taxa</c:v>
+                  <c:v>Taxa de mortalidade infantil por região (2013)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2036,12 +2090,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$B$4:$B$8</c:f>
+              <c:f>'Gráfico em barras'!$M$4:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2064,7 +2117,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$C$4:$C$8</c:f>
+              <c:f>'Gráfico em barras'!$O$4:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2100,12 +2153,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="182"/>
         <c:axId val="1924244623"/>
         <c:axId val="2049294831"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1924244623"/>
         <c:scaling>
@@ -2174,8 +2225,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4001,7 +4058,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4024,6 +4081,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4498,16 +4566,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>374061</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>64809</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605873</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>79401</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>73224</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>597589</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91032</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4539,16 +4607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4663,16 +4731,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4704,16 +4772,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13334</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4739,10 +4807,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5042,62 +5106,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C34D2D-8E7F-49D3-9C05-870B38821450}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="G2:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="129" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="7:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>18</v>
       </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>14</v>
       </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="7:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>12</v>
       </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5106,109 +5209,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FD2009-D53B-4505-82DA-E6B8A95004A3}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="M2:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O3" activeCellId="1" sqref="M3:N3 O3:R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="13:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6">
+        <v>0.107</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6">
+        <v>0.123</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5217,121 +5394,263 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30E9E71-FC07-411F-A239-51196BBA1E7F}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="K2:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="11:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="11:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>1940</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="10">
+        <v>45</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>1950</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>48</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>1960</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>52</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>1970</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>58</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>1980</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>62</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <v>1991</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>67</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>70</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>74</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="4">
+        <v>2018</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>76</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="4">
+        <v>2019</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>77</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="11:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="4">
+        <v>2020</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9">
+        <v>77</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1940</v>
-      </c>
-      <c r="C4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1950</v>
-      </c>
-      <c r="C5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1960</v>
-      </c>
-      <c r="C6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1970</v>
-      </c>
-      <c r="C7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1980</v>
-      </c>
-      <c r="C8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1991</v>
-      </c>
-      <c r="C9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>2010</v>
-      </c>
-      <c r="C11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2018</v>
-      </c>
-      <c r="C12">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>2019</v>
-      </c>
-      <c r="C13">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>2020</v>
-      </c>
-      <c r="C14">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="M14:T14"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5339,77 +5658,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1037F639-CB06-46E2-BBA9-111CAFFC9B62}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="M2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="13:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="17">
+        <v>24</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="5" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
+        <v>21</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>17</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="7" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
+        <v>13</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="8" spans="13:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
+        <v>9</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="9" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>